--- a/Modulo5/src/out/info_estados/West Virginia.xlsx
+++ b/Modulo5/src/out/info_estados/West Virginia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="81">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>W</t>
@@ -686,14 +692,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>995</v>
       </c>
       <c r="M2">
         <v>54001</v>
@@ -730,14 +736,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>687</v>
       </c>
       <c r="M3">
         <v>54001</v>
@@ -774,14 +780,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>1783</v>
       </c>
       <c r="M4">
         <v>54001</v>
@@ -818,14 +824,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="M5">
         <v>54001</v>
@@ -862,14 +868,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="M6">
         <v>54001</v>
@@ -906,14 +912,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>4021</v>
       </c>
       <c r="M7">
         <v>54003</v>
@@ -950,14 +956,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3592</v>
       </c>
       <c r="M8">
         <v>54003</v>
@@ -994,14 +1000,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>9236</v>
       </c>
       <c r="M9">
         <v>54003</v>
@@ -1038,14 +1044,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>671</v>
       </c>
       <c r="M10">
         <v>54003</v>
@@ -1082,14 +1088,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>1286</v>
       </c>
       <c r="M11">
         <v>54003</v>
@@ -1126,14 +1132,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2411</v>
       </c>
       <c r="M12">
         <v>54005</v>
@@ -1170,14 +1176,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>1245</v>
       </c>
       <c r="M13">
         <v>54005</v>
@@ -1214,14 +1220,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>79</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>1389</v>
       </c>
       <c r="M14">
         <v>54005</v>
@@ -1258,14 +1264,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>79</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M15">
         <v>54005</v>
@@ -1302,14 +1308,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>79</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="M16">
         <v>54005</v>
@@ -1346,14 +1352,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>1322</v>
       </c>
       <c r="M17">
         <v>54007</v>
@@ -1390,14 +1396,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>78</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>900</v>
       </c>
       <c r="M18">
         <v>54007</v>
@@ -1434,14 +1440,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>862</v>
       </c>
       <c r="M19">
         <v>54007</v>
@@ -1478,14 +1484,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>79</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M20">
         <v>54007</v>
@@ -1522,14 +1528,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>79</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="M21">
         <v>54007</v>
@@ -1566,14 +1572,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>78</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1967</v>
       </c>
       <c r="M22">
         <v>54009</v>
@@ -1610,14 +1616,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>78</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>1490</v>
       </c>
       <c r="M23">
         <v>54009</v>
@@ -1654,14 +1660,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>1964</v>
       </c>
       <c r="M24">
         <v>54009</v>
@@ -1698,14 +1704,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="M25">
         <v>54009</v>
@@ -1742,14 +1748,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>79</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="M26">
         <v>54009</v>
@@ -1786,14 +1792,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>78</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>5362</v>
       </c>
       <c r="M27">
         <v>54011</v>
@@ -1830,14 +1836,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>78</v>
       </c>
       <c r="K28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>4408</v>
       </c>
       <c r="M28">
         <v>54011</v>
@@ -1874,14 +1880,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>79</v>
       </c>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>5978</v>
       </c>
       <c r="M29">
         <v>54011</v>
@@ -1918,14 +1924,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>79</v>
       </c>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>921</v>
       </c>
       <c r="M30">
         <v>54011</v>
@@ -1962,14 +1968,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>79</v>
       </c>
       <c r="K31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>958</v>
       </c>
       <c r="M31">
         <v>54011</v>
@@ -2006,14 +2012,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>78</v>
       </c>
       <c r="K32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>804</v>
       </c>
       <c r="M32">
         <v>54013</v>
@@ -2050,14 +2056,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>78</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="M33">
         <v>54013</v>
@@ -2094,14 +2100,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>79</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>481</v>
       </c>
       <c r="M34">
         <v>54013</v>
@@ -2138,14 +2144,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>79</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M35">
         <v>54013</v>
@@ -2182,14 +2188,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>79</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M36">
         <v>54013</v>
@@ -2226,14 +2232,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>78</v>
       </c>
       <c r="K37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>755</v>
       </c>
       <c r="M37">
         <v>54015</v>
@@ -2270,14 +2276,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>78</v>
       </c>
       <c r="K38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="M38">
         <v>54015</v>
@@ -2314,14 +2320,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>79</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>569</v>
       </c>
       <c r="M39">
         <v>54015</v>
@@ -2358,14 +2364,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>79</v>
       </c>
       <c r="K40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M40">
         <v>54015</v>
@@ -2402,14 +2408,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="M41">
         <v>54015</v>
@@ -2446,14 +2452,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>78</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="M42">
         <v>54017</v>
@@ -2490,14 +2496,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>78</v>
       </c>
       <c r="K43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M43">
         <v>54017</v>
@@ -2534,14 +2540,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>79</v>
       </c>
       <c r="K44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>1223</v>
       </c>
       <c r="M44">
         <v>54017</v>
@@ -2578,14 +2584,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>79</v>
       </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="M45">
         <v>54017</v>
@@ -2622,14 +2628,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>79</v>
       </c>
       <c r="K46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="M46">
         <v>54017</v>
@@ -2666,14 +2672,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>78</v>
       </c>
       <c r="K47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3586</v>
       </c>
       <c r="M47">
         <v>54019</v>
@@ -2710,14 +2716,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>78</v>
       </c>
       <c r="K48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>2318</v>
       </c>
       <c r="M48">
         <v>54019</v>
@@ -2754,14 +2760,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>79</v>
       </c>
       <c r="K49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>2684</v>
       </c>
       <c r="M49">
         <v>54019</v>
@@ -2798,14 +2804,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>79</v>
       </c>
       <c r="K50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="M50">
         <v>54019</v>
@@ -2842,14 +2848,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>79</v>
       </c>
       <c r="K51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>238</v>
       </c>
       <c r="M51">
         <v>54019</v>
@@ -2886,14 +2892,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>78</v>
       </c>
       <c r="K52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>644</v>
       </c>
       <c r="M52">
         <v>54021</v>
@@ -2930,14 +2936,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>78</v>
       </c>
       <c r="K53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>344</v>
       </c>
       <c r="M53">
         <v>54021</v>
@@ -2974,14 +2980,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>79</v>
       </c>
       <c r="K54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>434</v>
       </c>
       <c r="M54">
         <v>54021</v>
@@ -3018,14 +3024,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>79</v>
       </c>
       <c r="K55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M55">
         <v>54021</v>
@@ -3062,14 +3068,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>79</v>
       </c>
       <c r="K56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="M56">
         <v>54021</v>
@@ -3106,14 +3112,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>78</v>
       </c>
       <c r="K57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="M57">
         <v>54023</v>
@@ -3150,14 +3156,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>78</v>
       </c>
       <c r="K58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="M58">
         <v>54023</v>
@@ -3194,14 +3200,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>79</v>
       </c>
       <c r="K59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>2577</v>
       </c>
       <c r="M59">
         <v>54023</v>
@@ -3238,14 +3244,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>79</v>
       </c>
       <c r="K60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="M60">
         <v>54023</v>
@@ -3282,14 +3288,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>79</v>
       </c>
       <c r="K61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="M61">
         <v>54023</v>
@@ -3326,14 +3332,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>78</v>
       </c>
       <c r="K62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>2865</v>
       </c>
       <c r="M62">
         <v>54025</v>
@@ -3370,14 +3376,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>78</v>
       </c>
       <c r="K63" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>1895</v>
       </c>
       <c r="M63">
         <v>54025</v>
@@ -3414,14 +3420,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>79</v>
       </c>
       <c r="K64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3006</v>
       </c>
       <c r="M64">
         <v>54025</v>
@@ -3458,14 +3464,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>79</v>
       </c>
       <c r="K65" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="M65">
         <v>54025</v>
@@ -3502,14 +3508,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>79</v>
       </c>
       <c r="K66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="M66">
         <v>54025</v>
@@ -3546,14 +3552,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>78</v>
       </c>
       <c r="K67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>1102</v>
       </c>
       <c r="M67">
         <v>54027</v>
@@ -3590,14 +3596,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>78</v>
       </c>
       <c r="K68" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>720</v>
       </c>
       <c r="M68">
         <v>54027</v>
@@ -3634,14 +3640,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>79</v>
       </c>
       <c r="K69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>2126</v>
       </c>
       <c r="M69">
         <v>54027</v>
@@ -3678,14 +3684,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>79</v>
       </c>
       <c r="K70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="M70">
         <v>54027</v>
@@ -3722,14 +3728,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>79</v>
       </c>
       <c r="K71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="M71">
         <v>54027</v>
@@ -3766,14 +3772,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>78</v>
       </c>
       <c r="K72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>2276</v>
       </c>
       <c r="M72">
         <v>54029</v>
@@ -3810,14 +3816,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>78</v>
       </c>
       <c r="K73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>1548</v>
       </c>
       <c r="M73">
         <v>54029</v>
@@ -3854,14 +3860,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>79</v>
       </c>
       <c r="K74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>2459</v>
       </c>
       <c r="M74">
         <v>54029</v>
@@ -3898,14 +3904,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>79</v>
       </c>
       <c r="K75" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M75">
         <v>54029</v>
@@ -3942,14 +3948,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>79</v>
       </c>
       <c r="K76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="M76">
         <v>54029</v>
@@ -3986,14 +3992,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>78</v>
       </c>
       <c r="K77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>884</v>
       </c>
       <c r="M77">
         <v>54031</v>
@@ -4030,14 +4036,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>78</v>
       </c>
       <c r="K78" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>656</v>
       </c>
       <c r="M78">
         <v>54031</v>
@@ -4074,14 +4080,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>79</v>
       </c>
       <c r="K79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>1120</v>
       </c>
       <c r="M79">
         <v>54031</v>
@@ -4118,14 +4124,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>79</v>
       </c>
       <c r="K80" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="M80">
         <v>54031</v>
@@ -4162,14 +4168,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="M81">
         <v>54031</v>
@@ -4206,14 +4212,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>78</v>
       </c>
       <c r="K82" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>5371</v>
       </c>
       <c r="M82">
         <v>54033</v>
@@ -4250,14 +4256,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>78</v>
       </c>
       <c r="K83" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>4185</v>
       </c>
       <c r="M83">
         <v>54033</v>
@@ -4294,14 +4300,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>79</v>
       </c>
       <c r="K84" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>5655</v>
       </c>
       <c r="M84">
         <v>54033</v>
@@ -4338,14 +4344,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>79</v>
       </c>
       <c r="K85" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>427</v>
       </c>
       <c r="M85">
         <v>54033</v>
@@ -4382,14 +4388,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>79</v>
       </c>
       <c r="K86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>629</v>
       </c>
       <c r="M86">
         <v>54033</v>
@@ -4426,14 +4432,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>78</v>
       </c>
       <c r="K87" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>1800</v>
       </c>
       <c r="M87">
         <v>54035</v>
@@ -4470,14 +4476,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>78</v>
       </c>
       <c r="K88" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>1444</v>
       </c>
       <c r="M88">
         <v>54035</v>
@@ -4514,14 +4520,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>79</v>
       </c>
       <c r="K89" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>3586</v>
       </c>
       <c r="M89">
         <v>54035</v>
@@ -4558,14 +4564,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>79</v>
       </c>
       <c r="K90" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="M90">
         <v>54035</v>
@@ -4602,14 +4608,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>79</v>
       </c>
       <c r="K91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>439</v>
       </c>
       <c r="M91">
         <v>54035</v>
@@ -4646,14 +4652,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>78</v>
       </c>
       <c r="K92" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3242</v>
       </c>
       <c r="M92">
         <v>54037</v>
@@ -4690,14 +4696,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>78</v>
       </c>
       <c r="K93" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>2911</v>
       </c>
       <c r="M93">
         <v>54037</v>
@@ -4734,14 +4740,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>79</v>
       </c>
       <c r="K94" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3864</v>
       </c>
       <c r="M94">
         <v>54037</v>
@@ -4778,14 +4784,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>79</v>
       </c>
       <c r="K95" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="M95">
         <v>54037</v>
@@ -4822,14 +4828,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>79</v>
       </c>
       <c r="K96" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>651</v>
       </c>
       <c r="M96">
         <v>54037</v>
@@ -4866,14 +4872,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>78</v>
       </c>
       <c r="K97" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>13481</v>
       </c>
       <c r="M97">
         <v>54039</v>
@@ -4910,14 +4916,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>78</v>
       </c>
       <c r="K98" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>12629</v>
       </c>
       <c r="M98">
         <v>54039</v>
@@ -4954,14 +4960,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>79</v>
       </c>
       <c r="K99" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>13937</v>
       </c>
       <c r="M99">
         <v>54039</v>
@@ -4998,14 +5004,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>79</v>
       </c>
       <c r="K100" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>1881</v>
       </c>
       <c r="M100">
         <v>54039</v>
@@ -5042,14 +5048,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>79</v>
       </c>
       <c r="K101" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>1676</v>
       </c>
       <c r="M101">
         <v>54039</v>
@@ -5086,14 +5092,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>78</v>
       </c>
       <c r="K102" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>1230</v>
       </c>
       <c r="M102">
         <v>54041</v>
@@ -5130,14 +5136,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>78</v>
       </c>
       <c r="K103" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>713</v>
       </c>
       <c r="M103">
         <v>54041</v>
@@ -5174,14 +5180,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>79</v>
       </c>
       <c r="K104" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>2129</v>
       </c>
       <c r="M104">
         <v>54041</v>
@@ -5218,14 +5224,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>79</v>
       </c>
       <c r="K105" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="M105">
         <v>54041</v>
@@ -5262,14 +5268,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>79</v>
       </c>
       <c r="K106" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="M106">
         <v>54041</v>
@@ -5306,14 +5312,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>78</v>
       </c>
       <c r="K107" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>1511</v>
       </c>
       <c r="M107">
         <v>54043</v>
@@ -5350,14 +5356,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>78</v>
       </c>
       <c r="K108" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>1016</v>
       </c>
       <c r="M108">
         <v>54043</v>
@@ -5394,14 +5400,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>79</v>
       </c>
       <c r="K109" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>1194</v>
       </c>
       <c r="M109">
         <v>54043</v>
@@ -5438,14 +5444,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>79</v>
       </c>
       <c r="K110" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="M110">
         <v>54043</v>
@@ -5482,14 +5488,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>79</v>
       </c>
       <c r="K111" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M111">
         <v>54043</v>
@@ -5526,14 +5532,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>78</v>
       </c>
       <c r="K112" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3202</v>
       </c>
       <c r="M112">
         <v>54045</v>
@@ -5570,14 +5576,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>78</v>
       </c>
       <c r="K113" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>1492</v>
       </c>
       <c r="M113">
         <v>54045</v>
@@ -5614,14 +5620,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>79</v>
       </c>
       <c r="K114" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>1666</v>
       </c>
       <c r="M114">
         <v>54045</v>
@@ -5658,14 +5664,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>79</v>
       </c>
       <c r="K115" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M115">
         <v>54045</v>
@@ -5702,14 +5708,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>79</v>
       </c>
       <c r="K116" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="M116">
         <v>54045</v>
@@ -5746,14 +5752,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>78</v>
       </c>
       <c r="K117" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>5325</v>
       </c>
       <c r="M117">
         <v>54049</v>
@@ -5790,14 +5796,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>78</v>
       </c>
       <c r="K118" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3557</v>
       </c>
       <c r="M118">
         <v>54049</v>
@@ -5834,14 +5840,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>79</v>
       </c>
       <c r="K119" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>4036</v>
       </c>
       <c r="M119">
         <v>54049</v>
@@ -5878,14 +5884,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>79</v>
       </c>
       <c r="K120" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>319</v>
       </c>
       <c r="M120">
         <v>54049</v>
@@ -5922,14 +5928,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>79</v>
       </c>
       <c r="K121" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>425</v>
       </c>
       <c r="M121">
         <v>54049</v>
@@ -5966,14 +5972,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>78</v>
       </c>
       <c r="K122" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>2600</v>
       </c>
       <c r="M122">
         <v>54051</v>
@@ -6010,14 +6016,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>78</v>
       </c>
       <c r="K123" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>1450</v>
       </c>
       <c r="M123">
         <v>54051</v>
@@ -6054,14 +6060,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>79</v>
       </c>
       <c r="K124" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3072</v>
       </c>
       <c r="M124">
         <v>54051</v>
@@ -6098,14 +6104,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>79</v>
       </c>
       <c r="K125" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="M125">
         <v>54051</v>
@@ -6142,14 +6148,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>79</v>
       </c>
       <c r="K126" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="M126">
         <v>54051</v>
@@ -6186,14 +6192,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>78</v>
       </c>
       <c r="K127" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>1770</v>
       </c>
       <c r="M127">
         <v>54053</v>
@@ -6230,14 +6236,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>78</v>
       </c>
       <c r="K128" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>1222</v>
       </c>
       <c r="M128">
         <v>54053</v>
@@ -6274,14 +6280,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>79</v>
       </c>
       <c r="K129" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>2485</v>
       </c>
       <c r="M129">
         <v>54053</v>
@@ -6318,14 +6324,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>79</v>
       </c>
       <c r="K130" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="M130">
         <v>54053</v>
@@ -6362,14 +6368,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>79</v>
       </c>
       <c r="K131" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="M131">
         <v>54053</v>
@@ -6406,14 +6412,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>78</v>
       </c>
       <c r="K132" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>1454</v>
       </c>
       <c r="M132">
         <v>54047</v>
@@ -6450,14 +6456,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>78</v>
       </c>
       <c r="K133" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>782</v>
       </c>
       <c r="M133">
         <v>54047</v>
@@ -6494,14 +6500,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>79</v>
       </c>
       <c r="K134" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>761</v>
       </c>
       <c r="M134">
         <v>54047</v>
@@ -6538,14 +6544,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>79</v>
       </c>
       <c r="K135" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M135">
         <v>54047</v>
@@ -6582,14 +6588,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>79</v>
       </c>
       <c r="K136" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M136">
         <v>54047</v>
@@ -6626,14 +6632,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>78</v>
       </c>
       <c r="K137" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3234</v>
       </c>
       <c r="M137">
         <v>54055</v>
@@ -6670,14 +6676,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>78</v>
       </c>
       <c r="K138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>2168</v>
       </c>
       <c r="M138">
         <v>54055</v>
@@ -6714,14 +6720,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>79</v>
       </c>
       <c r="K139" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>5527</v>
       </c>
       <c r="M139">
         <v>54055</v>
@@ -6758,14 +6764,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>79</v>
       </c>
       <c r="K140" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="M140">
         <v>54055</v>
@@ -6802,14 +6808,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>79</v>
       </c>
       <c r="K141" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="M141">
         <v>54055</v>
@@ -6846,14 +6852,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>78</v>
       </c>
       <c r="K142" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>1111</v>
       </c>
       <c r="M142">
         <v>54057</v>
@@ -6890,14 +6896,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>78</v>
       </c>
       <c r="K143" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>855</v>
       </c>
       <c r="M143">
         <v>54057</v>
@@ -6934,14 +6940,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>79</v>
       </c>
       <c r="K144" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3482</v>
       </c>
       <c r="M144">
         <v>54057</v>
@@ -6978,14 +6984,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>79</v>
       </c>
       <c r="K145" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="M145">
         <v>54057</v>
@@ -7022,14 +7028,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>79</v>
       </c>
       <c r="K146" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>366</v>
       </c>
       <c r="M146">
         <v>54057</v>
@@ -7066,14 +7072,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>78</v>
       </c>
       <c r="K147" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>2426</v>
       </c>
       <c r="M147">
         <v>54059</v>
@@ -7110,14 +7116,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>78</v>
       </c>
       <c r="K148" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>1075</v>
       </c>
       <c r="M148">
         <v>54059</v>
@@ -7154,14 +7160,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>79</v>
       </c>
       <c r="K149" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>1162</v>
       </c>
       <c r="M149">
         <v>54059</v>
@@ -7198,14 +7204,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>79</v>
       </c>
       <c r="K150" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M150">
         <v>54059</v>
@@ -7242,14 +7248,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>79</v>
       </c>
       <c r="K151" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M151">
         <v>54059</v>
@@ -7286,14 +7292,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>78</v>
       </c>
       <c r="K152" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>8097</v>
       </c>
       <c r="M152">
         <v>54061</v>
@@ -7330,14 +7336,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>78</v>
       </c>
       <c r="K153" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>4964</v>
       </c>
       <c r="M153">
         <v>54061</v>
@@ -7374,14 +7380,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>79</v>
       </c>
       <c r="K154" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>5972</v>
       </c>
       <c r="M154">
         <v>54061</v>
@@ -7418,14 +7424,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>79</v>
       </c>
       <c r="K155" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>944</v>
       </c>
       <c r="M155">
         <v>54061</v>
@@ -7462,14 +7468,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>79</v>
       </c>
       <c r="K156" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>852</v>
       </c>
       <c r="M156">
         <v>54061</v>
@@ -7506,14 +7512,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>78</v>
       </c>
       <c r="K157" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>818</v>
       </c>
       <c r="M157">
         <v>54063</v>
@@ -7550,14 +7556,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>78</v>
       </c>
       <c r="K158" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>605</v>
       </c>
       <c r="M158">
         <v>54063</v>
@@ -7594,14 +7600,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>79</v>
       </c>
       <c r="K159" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>1558</v>
       </c>
       <c r="M159">
         <v>54063</v>
@@ -7638,14 +7644,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>79</v>
       </c>
       <c r="K160" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M160">
         <v>54063</v>
@@ -7682,14 +7688,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>79</v>
       </c>
       <c r="K161" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="M161">
         <v>54063</v>
@@ -7726,14 +7732,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>78</v>
       </c>
       <c r="K162" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>683</v>
       </c>
       <c r="M162">
         <v>54065</v>
@@ -7770,14 +7776,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>78</v>
       </c>
       <c r="K163" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>487</v>
       </c>
       <c r="M163">
         <v>54065</v>
@@ -7814,14 +7820,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>79</v>
       </c>
       <c r="K164" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>2825</v>
       </c>
       <c r="M164">
         <v>54065</v>
@@ -7858,14 +7864,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>79</v>
       </c>
       <c r="K165" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="M165">
         <v>54065</v>
@@ -7902,14 +7908,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>79</v>
       </c>
       <c r="K166" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>319</v>
       </c>
       <c r="M166">
         <v>54065</v>
@@ -7946,14 +7952,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>78</v>
       </c>
       <c r="K167" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>1945</v>
       </c>
       <c r="M167">
         <v>54067</v>
@@ -7990,14 +7996,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>78</v>
       </c>
       <c r="K168" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>1087</v>
       </c>
       <c r="M168">
         <v>54067</v>
@@ -8034,14 +8040,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>79</v>
       </c>
       <c r="K169" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>2211</v>
       </c>
       <c r="M169">
         <v>54067</v>
@@ -8078,14 +8084,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>79</v>
       </c>
       <c r="K170" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="M170">
         <v>54067</v>
@@ -8122,14 +8128,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>79</v>
       </c>
       <c r="K171" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="M171">
         <v>54067</v>
@@ -8166,14 +8172,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>78</v>
       </c>
       <c r="K172" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>3364</v>
       </c>
       <c r="M172">
         <v>54069</v>
@@ -8210,14 +8216,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>78</v>
       </c>
       <c r="K173" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>2469</v>
       </c>
       <c r="M173">
         <v>54069</v>
@@ -8254,14 +8260,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>79</v>
       </c>
       <c r="K174" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>3876</v>
       </c>
       <c r="M174">
         <v>54069</v>
@@ -8298,14 +8304,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>79</v>
       </c>
       <c r="K175" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>714</v>
       </c>
       <c r="M175">
         <v>54069</v>
@@ -8342,14 +8348,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>79</v>
       </c>
       <c r="K176" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="M176">
         <v>54069</v>
@@ -8386,14 +8392,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>78</v>
       </c>
       <c r="K177" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>485</v>
       </c>
       <c r="M177">
         <v>54071</v>
@@ -8430,14 +8436,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>78</v>
       </c>
       <c r="K178" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="M178">
         <v>54071</v>
@@ -8474,14 +8480,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>79</v>
       </c>
       <c r="K179" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>588</v>
       </c>
       <c r="M179">
         <v>54071</v>
@@ -8518,14 +8524,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>79</v>
       </c>
       <c r="K180" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M180">
         <v>54071</v>
@@ -8562,14 +8568,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>79</v>
       </c>
       <c r="K181" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M181">
         <v>54071</v>
@@ -8606,14 +8612,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>78</v>
       </c>
       <c r="K182" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>546</v>
       </c>
       <c r="M182">
         <v>54073</v>
@@ -8650,14 +8656,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>78</v>
       </c>
       <c r="K183" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="M183">
         <v>54073</v>
@@ -8694,14 +8700,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>79</v>
       </c>
       <c r="K184" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>856</v>
       </c>
       <c r="M184">
         <v>54073</v>
@@ -8738,14 +8744,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>79</v>
       </c>
       <c r="K185" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="M185">
         <v>54073</v>
@@ -8782,14 +8788,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>79</v>
       </c>
       <c r="K186" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="M186">
         <v>54073</v>
@@ -8826,14 +8832,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>78</v>
       </c>
       <c r="K187" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>827</v>
       </c>
       <c r="M187">
         <v>54075</v>
@@ -8870,14 +8876,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>78</v>
       </c>
       <c r="K188" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>525</v>
       </c>
       <c r="M188">
         <v>54075</v>
@@ -8914,14 +8920,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>79</v>
       </c>
       <c r="K189" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>834</v>
       </c>
       <c r="M189">
         <v>54075</v>
@@ -8958,14 +8964,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>79</v>
       </c>
       <c r="K190" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M190">
         <v>54075</v>
@@ -9002,14 +9008,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>79</v>
       </c>
       <c r="K191" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="M191">
         <v>54075</v>
@@ -9046,14 +9052,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>78</v>
       </c>
       <c r="K192" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>1720</v>
       </c>
       <c r="M192">
         <v>54077</v>
@@ -9090,14 +9096,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>78</v>
       </c>
       <c r="K193" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>958</v>
       </c>
       <c r="M193">
         <v>54077</v>
@@ -9134,14 +9140,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>79</v>
       </c>
       <c r="K194" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>4188</v>
       </c>
       <c r="M194">
         <v>54077</v>
@@ -9178,14 +9184,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>79</v>
       </c>
       <c r="K195" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="M195">
         <v>54077</v>
@@ -9222,14 +9228,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>79</v>
       </c>
       <c r="K196" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>430</v>
       </c>
       <c r="M196">
         <v>54077</v>
@@ -9266,14 +9272,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>78</v>
       </c>
       <c r="K197" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>3252</v>
       </c>
       <c r="M197">
         <v>54079</v>
@@ -9310,14 +9316,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>78</v>
       </c>
       <c r="K198" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>2544</v>
       </c>
       <c r="M198">
         <v>54079</v>
@@ -9354,14 +9360,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>79</v>
       </c>
       <c r="K199" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>6396</v>
       </c>
       <c r="M199">
         <v>54079</v>
@@ -9398,14 +9404,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>79</v>
       </c>
       <c r="K200" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>678</v>
       </c>
       <c r="M200">
         <v>54079</v>
@@ -9442,14 +9448,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>79</v>
       </c>
       <c r="K201" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>845</v>
       </c>
       <c r="M201">
         <v>54079</v>
@@ -9486,14 +9492,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>78</v>
       </c>
       <c r="K202" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>4889</v>
       </c>
       <c r="M202">
         <v>54081</v>
@@ -9530,14 +9536,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>78</v>
       </c>
       <c r="K203" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>3226</v>
       </c>
       <c r="M203">
         <v>54081</v>
@@ -9574,14 +9580,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>79</v>
       </c>
       <c r="K204" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>7326</v>
       </c>
       <c r="M204">
         <v>54081</v>
@@ -9618,14 +9624,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>79</v>
       </c>
       <c r="K205" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>338</v>
       </c>
       <c r="M205">
         <v>54081</v>
@@ -9662,14 +9668,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>79</v>
       </c>
       <c r="K206" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="M206">
         <v>54081</v>
@@ -9706,14 +9712,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>78</v>
       </c>
       <c r="K207" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>2493</v>
       </c>
       <c r="M207">
         <v>54083</v>
@@ -9750,14 +9756,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>78</v>
       </c>
       <c r="K208" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>1516</v>
       </c>
       <c r="M208">
         <v>54083</v>
@@ -9794,14 +9800,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>79</v>
       </c>
       <c r="K209" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>2207</v>
       </c>
       <c r="M209">
         <v>54083</v>
@@ -9838,14 +9844,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>79</v>
       </c>
       <c r="K210" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="M210">
         <v>54083</v>
@@ -9882,14 +9888,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>79</v>
       </c>
       <c r="K211" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="M211">
         <v>54083</v>
@@ -9926,14 +9932,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>78</v>
       </c>
       <c r="K212" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>352</v>
       </c>
       <c r="M212">
         <v>54085</v>
@@ -9970,14 +9976,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>78</v>
       </c>
       <c r="K213" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M213">
         <v>54085</v>
@@ -10014,14 +10020,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>79</v>
       </c>
       <c r="K214" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>1741</v>
       </c>
       <c r="M214">
         <v>54085</v>
@@ -10058,14 +10064,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>79</v>
       </c>
       <c r="K215" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="M215">
         <v>54085</v>
@@ -10102,14 +10108,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>79</v>
       </c>
       <c r="K216" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="M216">
         <v>54085</v>
@@ -10146,14 +10152,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>78</v>
       </c>
       <c r="K217" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>1003</v>
       </c>
       <c r="M217">
         <v>54087</v>
@@ -10190,14 +10196,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>78</v>
       </c>
       <c r="K218" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>742</v>
       </c>
       <c r="M218">
         <v>54087</v>
@@ -10234,14 +10240,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>79</v>
       </c>
       <c r="K219" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>1458</v>
       </c>
       <c r="M219">
         <v>54087</v>
@@ -10278,14 +10284,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>79</v>
       </c>
       <c r="K220" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="M220">
         <v>54087</v>
@@ -10322,14 +10328,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>79</v>
       </c>
       <c r="K221" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="M221">
         <v>54087</v>
@@ -10366,14 +10372,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>78</v>
       </c>
       <c r="K222" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>1061</v>
       </c>
       <c r="M222">
         <v>54089</v>
@@ -10410,14 +10416,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>78</v>
       </c>
       <c r="K223" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>780</v>
       </c>
       <c r="M223">
         <v>54089</v>
@@ -10454,14 +10460,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>79</v>
       </c>
       <c r="K224" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>943</v>
       </c>
       <c r="M224">
         <v>54089</v>
@@ -10498,14 +10504,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>79</v>
       </c>
       <c r="K225" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="M225">
         <v>54089</v>
@@ -10542,14 +10548,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>79</v>
       </c>
       <c r="K226" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="M226">
         <v>54089</v>
@@ -10586,14 +10592,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>78</v>
       </c>
       <c r="K227" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>1107</v>
       </c>
       <c r="M227">
         <v>54091</v>
@@ -10630,14 +10636,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>78</v>
       </c>
       <c r="K228" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>765</v>
       </c>
       <c r="M228">
         <v>54091</v>
@@ -10674,14 +10680,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>79</v>
       </c>
       <c r="K229" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>1653</v>
       </c>
       <c r="M229">
         <v>54091</v>
@@ -10718,14 +10724,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>79</v>
       </c>
       <c r="K230" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="M230">
         <v>54091</v>
@@ -10762,14 +10768,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>79</v>
       </c>
       <c r="K231" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="M231">
         <v>54091</v>
@@ -10806,14 +10812,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>78</v>
       </c>
       <c r="K232" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>771</v>
       </c>
       <c r="M232">
         <v>54093</v>
@@ -10850,14 +10856,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>78</v>
       </c>
       <c r="K233" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="M233">
         <v>54093</v>
@@ -10894,14 +10900,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>79</v>
       </c>
       <c r="K234" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>788</v>
       </c>
       <c r="M234">
         <v>54093</v>
@@ -10938,14 +10944,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>79</v>
       </c>
       <c r="K235" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M235">
         <v>54093</v>
@@ -10982,14 +10988,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>79</v>
       </c>
       <c r="K236" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="M236">
         <v>54093</v>
@@ -11026,14 +11032,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>78</v>
       </c>
       <c r="K237" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="M237">
         <v>54095</v>
@@ -11070,14 +11076,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>78</v>
       </c>
       <c r="K238" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="M238">
         <v>54095</v>
@@ -11114,14 +11120,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>79</v>
       </c>
       <c r="K239" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>1359</v>
       </c>
       <c r="M239">
         <v>54095</v>
@@ -11158,14 +11164,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>79</v>
       </c>
       <c r="K240" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="M240">
         <v>54095</v>
@@ -11202,14 +11208,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>79</v>
       </c>
       <c r="K241" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="M241">
         <v>54095</v>
@@ -11246,14 +11252,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>78</v>
       </c>
       <c r="K242" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>1072</v>
       </c>
       <c r="M242">
         <v>54097</v>
@@ -11290,14 +11296,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>78</v>
       </c>
       <c r="K243" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>739</v>
       </c>
       <c r="M243">
         <v>54097</v>
@@ -11334,14 +11340,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>79</v>
       </c>
       <c r="K244" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3274</v>
       </c>
       <c r="M244">
         <v>54097</v>
@@ -11378,14 +11384,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>79</v>
       </c>
       <c r="K245" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="M245">
         <v>54097</v>
@@ -11422,14 +11428,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>79</v>
       </c>
       <c r="K246" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="M246">
         <v>54097</v>
@@ -11466,14 +11472,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>78</v>
       </c>
       <c r="K247" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>2899</v>
       </c>
       <c r="M247">
         <v>54099</v>
@@ -11510,14 +11516,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>78</v>
       </c>
       <c r="K248" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>1935</v>
       </c>
       <c r="M248">
         <v>54099</v>
@@ -11554,14 +11560,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>79</v>
       </c>
       <c r="K249" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>2663</v>
       </c>
       <c r="M249">
         <v>54099</v>
@@ -11598,14 +11604,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>79</v>
       </c>
       <c r="K250" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="M250">
         <v>54099</v>
@@ -11642,14 +11648,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>79</v>
       </c>
       <c r="K251" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="M251">
         <v>54099</v>
@@ -11686,14 +11692,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>78</v>
       </c>
       <c r="K252" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>838</v>
       </c>
       <c r="M252">
         <v>54101</v>
@@ -11730,14 +11736,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>78</v>
       </c>
       <c r="K253" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="M253">
         <v>54101</v>
@@ -11774,14 +11780,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>79</v>
       </c>
       <c r="K254" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>424</v>
       </c>
       <c r="M254">
         <v>54101</v>
@@ -11818,14 +11824,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>79</v>
       </c>
       <c r="K255" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M255">
         <v>54101</v>
@@ -11862,14 +11868,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>79</v>
       </c>
       <c r="K256" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M256">
         <v>54101</v>
@@ -11906,14 +11912,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>78</v>
       </c>
       <c r="K257" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>1745</v>
       </c>
       <c r="M257">
         <v>54103</v>
@@ -11950,14 +11956,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>78</v>
       </c>
       <c r="K258" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>846</v>
       </c>
       <c r="M258">
         <v>54103</v>
@@ -11994,14 +12000,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>79</v>
       </c>
       <c r="K259" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>1097</v>
       </c>
       <c r="M259">
         <v>54103</v>
@@ -12038,14 +12044,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>79</v>
       </c>
       <c r="K260" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M260">
         <v>54103</v>
@@ -12082,14 +12088,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>79</v>
       </c>
       <c r="K261" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="M261">
         <v>54103</v>
@@ -12126,14 +12132,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>78</v>
       </c>
       <c r="K262" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="M262">
         <v>54105</v>
@@ -12170,14 +12176,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>78</v>
       </c>
       <c r="K263" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="M263">
         <v>54105</v>
@@ -12214,14 +12220,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>79</v>
       </c>
       <c r="K264" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="M264">
         <v>54105</v>
@@ -12258,14 +12264,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>79</v>
       </c>
       <c r="K265" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M265">
         <v>54105</v>
@@ -12302,14 +12308,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>79</v>
       </c>
       <c r="K266" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M266">
         <v>54105</v>
@@ -12346,14 +12352,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>78</v>
       </c>
       <c r="K267" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>4520</v>
       </c>
       <c r="M267">
         <v>54107</v>
@@ -12390,14 +12396,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>78</v>
       </c>
       <c r="K268" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>3170</v>
       </c>
       <c r="M268">
         <v>54107</v>
@@ -12434,14 +12440,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>79</v>
       </c>
       <c r="K269" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>9590</v>
       </c>
       <c r="M269">
         <v>54107</v>
@@ -12478,14 +12484,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>79</v>
       </c>
       <c r="K270" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>1345</v>
       </c>
       <c r="M270">
         <v>54107</v>
@@ -12522,14 +12528,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>79</v>
       </c>
       <c r="K271" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>1305</v>
       </c>
       <c r="M271">
         <v>54107</v>
@@ -12566,14 +12572,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>78</v>
       </c>
       <c r="K272" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>1499</v>
       </c>
       <c r="M272">
         <v>54109</v>
@@ -12610,14 +12616,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>78</v>
       </c>
       <c r="K273" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>711</v>
       </c>
       <c r="M273">
         <v>54109</v>
@@ -12654,14 +12660,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>79</v>
       </c>
       <c r="K274" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>1594</v>
       </c>
       <c r="M274">
         <v>54109</v>
@@ -12698,14 +12704,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>79</v>
       </c>
       <c r="K275" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M275">
         <v>54109</v>
@@ -12742,14 +12748,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>79</v>
       </c>
       <c r="K276" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="M276">
         <v>54109</v>
